--- a/Module1/Lab1Start v5.xlsx
+++ b/Module1/Lab1Start v5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Work\Temp\edX courses\DAT205x_2\Labs and Quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Work\GitHub\Introduction-to-Data-Analysis-using-Excel\Module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Revenue</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Bikes</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -408,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +416,7 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2011</v>
       </c>
@@ -438,11 +435,8 @@
       <c r="H2">
         <v>2016</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -458,11 +452,8 @@
       <c r="H3">
         <v>4154231</v>
       </c>
-      <c r="I3">
-        <v>15117992</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -484,11 +475,8 @@
       <c r="H4">
         <v>11372150</v>
       </c>
-      <c r="I4">
-        <v>61782134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -504,132 +492,87 @@
       <c r="H5">
         <v>2187004</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>15117992</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>61782134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>8370882</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>8964888</v>
-      </c>
-      <c r="D6">
-        <v>9175983</v>
-      </c>
-      <c r="E6">
-        <v>15240037</v>
-      </c>
-      <c r="F6">
-        <v>14152724</v>
-      </c>
-      <c r="G6">
-        <v>20023991</v>
-      </c>
-      <c r="H6">
-        <v>17713385</v>
-      </c>
-      <c r="I6">
-        <v>85271008</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>15117992</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>61782134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>8370882</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>85271008</v>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>21302059</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7935738</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>21302059</v>
+        <v>8432872</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>7935738</v>
+        <v>8978596</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>8432872</v>
+        <v>10646196</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>8978596</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>10646196</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
         <v>27975547</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>85271008</v>
       </c>
     </row>
   </sheetData>

--- a/Module1/Lab1Start v5.xlsx
+++ b/Module1/Lab1Start v5.xlsx
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B15" sqref="B15:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,80 +416,80 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>2011</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2012</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2013</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2014</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2015</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>2016</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3384215</v>
-      </c>
-      <c r="F3">
-        <v>4293592</v>
-      </c>
-      <c r="G3">
-        <v>3285954</v>
-      </c>
-      <c r="H3">
-        <v>4154231</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>8964888</v>
-      </c>
-      <c r="D4">
-        <v>9175983</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>9858787</v>
+        <v>3384215</v>
       </c>
       <c r="F4">
-        <v>7611243</v>
+        <v>4293592</v>
       </c>
       <c r="G4">
-        <v>14799083</v>
+        <v>3285954</v>
       </c>
       <c r="H4">
-        <v>11372150</v>
+        <v>4154231</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8964888</v>
+      </c>
+      <c r="D5">
+        <v>9175983</v>
+      </c>
+      <c r="E5">
+        <v>9858787</v>
+      </c>
+      <c r="F5">
+        <v>7611243</v>
+      </c>
+      <c r="G5">
+        <v>14799083</v>
+      </c>
+      <c r="H5">
+        <v>11372150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1997035</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2247889</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>1938954</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>2187004</v>
       </c>
     </row>
@@ -522,56 +522,56 @@
         <v>8370882</v>
       </c>
     </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>21302059</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>21302059</v>
+        <v>7935738</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>7935738</v>
+        <v>8432872</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>8432872</v>
+        <v>8978596</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>8978596</v>
+        <v>10646196</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>10646196</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
         <v>27975547</v>
       </c>
     </row>
